--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574147.5717740216</v>
+        <v>-576659.9801553865</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>116.5525109439081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>106.968720738993</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>134.5549294629428</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>49.82019484631894</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>182.1329347466177</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.98090095918312</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>278.9463847679586</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>296.5444186076062</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>108.1663438184763</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>16.99443589447046</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>365.4412483366976</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.9220711724786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>194.2895261568864</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>146.3371029472784</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>33.3866464628302</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>40.57972681915197</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>220.2194287427524</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.23631843387909</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>112.2919725119091</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>39.5212963318317</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>141.9273329298508</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>141.383131826302</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>241.2831928543109</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541844</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381.278680221568</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.548871187317</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D2" t="n">
-        <v>905.2831725805665</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2316.694828583083</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>2316.694828583083</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>497.2292276770755</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>497.2292276770755</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>497.2292276770755</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>349.3161340946824</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>202.4261865967721</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>202.4261865967721</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>678.8776925073153</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>678.8776925073153</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>678.8776925073153</v>
       </c>
       <c r="W4" t="n">
-        <v>736.9143444579649</v>
+        <v>678.8776925073153</v>
       </c>
       <c r="X4" t="n">
-        <v>680.3679798527295</v>
+        <v>678.8776925073153</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.3679798527295</v>
+        <v>678.8776925073153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549909</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>758.7856865549909</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>372.9974339567466</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>366.0519332075432</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559524</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.1048757766374</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
         <v>212.7293032143256</v>
@@ -4717,16 +4717,16 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4759,16 +4759,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201675</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766374</v>
+        <v>376.7853475753374</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>2001.643962205201</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1632.681445264789</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1274.415746658039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>888.6274940597946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>477.641589270187</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>2388.243802269323</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812242</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="X10" t="n">
-        <v>435.2177891581066</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>733.4550657171301</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>583.3384263047943</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>583.3384263047943</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>436.4484788068839</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>269.2523795217639</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>127.540548363962</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832662</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.84215317686</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,16 +5832,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>754.5554335404214</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>456.5257005456925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277359</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453428</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8238677453428</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6473,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384012</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,19 +7728,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.627616639638</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>248.7203808270995</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>242.2722479784201</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.7287544298503</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>169.728754429854</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>47.87918985573533</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016476</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>31.91821458107557</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>33.12907551102217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.0028419604371</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26323,10 +26323,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.6448992519</v>
@@ -26335,7 +26335,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
@@ -26347,7 +26347,7 @@
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27249.14345670401</v>
+        <v>27249.14345670407</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
@@ -26445,19 +26445,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
+        <v>22817.55530496084</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22817.55530496086</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496078</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234868.185969791</v>
+        <v>-1235158.793134637</v>
       </c>
       <c r="C6" t="n">
-        <v>65307.89054044621</v>
+        <v>65307.89054044631</v>
       </c>
       <c r="D6" t="n">
-        <v>65307.89054044633</v>
+        <v>65307.89054044627</v>
       </c>
       <c r="E6" t="n">
-        <v>-179039.0427738775</v>
+        <v>-179073.7806993132</v>
       </c>
       <c r="F6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="G6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="H6" t="n">
-        <v>146373.4190334774</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="I6" t="n">
-        <v>146373.4190334772</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="J6" t="n">
-        <v>-71157.7833637998</v>
+        <v>-71192.52128923566</v>
       </c>
       <c r="K6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080418</v>
       </c>
       <c r="L6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080418</v>
       </c>
       <c r="M6" t="n">
-        <v>61318.39109796574</v>
+        <v>61283.65317253015</v>
       </c>
       <c r="N6" t="n">
-        <v>121429.1860533845</v>
+        <v>121429.1860533844</v>
       </c>
       <c r="O6" t="n">
-        <v>140856.9040470159</v>
+        <v>140856.904047016</v>
       </c>
       <c r="P6" t="n">
         <v>140856.904047016</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>10.20008545137802</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,10 +27585,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>104.3900635899733</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>86.3265070030489</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>114.3773070458473</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.08047728015151</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>129.4395267520987</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>45.48047731675587</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>284.3158674835749</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>31.42012923215071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>72.24755040481637</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,13 +32470,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817599</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>485.927610870024</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060443</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367793</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>351.9532034556937</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
